--- a/lab/lab7/lab07_Section2.xlsx
+++ b/lab/lab7/lab07_Section2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumanni/Documents/CSE 220/cse220_2020fall/lab/lab7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28058971-766E-884A-9D38-5FDBC15F20B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485FFCF1-3615-234E-B5FE-0F91C1D82330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{1C3543F5-1004-B644-A376-BBD6DC1ED258}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -101,16 +101,10 @@
     <t>Militello, Gabe</t>
   </si>
   <si>
-    <t>Obannon-Liggins, Joshua</t>
-  </si>
-  <si>
     <t>Phebus, Seth</t>
   </si>
   <si>
     <t>Risdon, Scott</t>
-  </si>
-  <si>
-    <t>Rodgers, Michael</t>
   </si>
   <si>
     <t>Ryba, Jake</t>
@@ -505,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C37B7-F0BE-684B-BEEA-5AEE1918F2D1}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,12 +672,15 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -691,24 +688,27 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,23 +759,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" tooltip="Compose email to Seth Phebus" display="javascript://" xr:uid="{009313D3-A4B6-5B45-A339-B47184610BDC}"/>
-    <hyperlink ref="A27" r:id="rId2" tooltip="Compose email to Jake Ryba" display="javascript://" xr:uid="{E27345F8-0ED6-8149-8A44-B98CEE2FAD6C}"/>
+    <hyperlink ref="A23" r:id="rId1" tooltip="Compose email to Seth Phebus" display="javascript://" xr:uid="{009313D3-A4B6-5B45-A339-B47184610BDC}"/>
+    <hyperlink ref="A25" r:id="rId2" tooltip="Compose email to Jake Ryba" display="javascript://" xr:uid="{E27345F8-0ED6-8149-8A44-B98CEE2FAD6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
